--- a/蘇聖德教育訓練計劃(1).xlsx
+++ b/蘇聖德教育訓練計劃(1).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>蘇聖德教育訓練計劃(10/11~10/18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,13 +190,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,6 +218,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -705,6 +723,11 @@
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
